--- a/AmsTest/test_AmsActions/test_AmsActionsWorking/DataRecord.xlsx
+++ b/AmsTest/test_AmsActions/test_AmsActionsWorking/DataRecord.xlsx
@@ -52,47 +52,8 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,6 +62,36 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,21 +105,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -158,8 +135,17 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,6 +153,14 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -188,8 +182,14 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -209,19 +209,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,13 +347,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,152 +393,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -404,16 +404,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,9 +501,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,165 +525,189 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -656,8 +715,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,7 +730,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,10 +1120,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1077,6 +1146,13 @@
           <t>AMS ACTIONS</t>
         </is>
       </c>
+      <c r="B1" s="9" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
+      <c r="H1" s="10" t="n"/>
     </row>
     <row r="2" ht="30" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="1" t="inlineStr">
@@ -1094,17 +1170,17 @@
           <t>Activity</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>No. Of Records In Asset Type Table</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>No. Of Records In Asset Table</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>No. Of Records In Activity Table</t>
         </is>
@@ -1121,43 +1197,50 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>yyukn_AssetType</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>mjgng_Asset</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>mrapf_Activity</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>236</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="7" t="n">
         <v>86</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="7" t="n">
         <v>109</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="7" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>DASHBOARD</t>
-        </is>
-      </c>
+          <t>ORGANISATION CHART</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="n"/>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1165,11 +1248,12 @@
           <t>User ID</t>
         </is>
       </c>
+      <c r="B6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>MaintenanceOffice_4</t>
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>User_HCIKL</t>
         </is>
       </c>
     </row>
@@ -1179,6 +1263,13 @@
           <t>CREATE BREAKDOWN</t>
         </is>
       </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1188,17 +1279,46 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>BD-8013</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>SKILL MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n"/>
+      <c r="C13" s="9" t="n"/>
+      <c r="D13" s="9" t="n"/>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="10" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Skill Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Abc_Skill</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AmsTest/test_AmsActions/test_AmsActionsWorking/DataRecord.xlsx
+++ b/AmsTest/test_AmsActions/test_AmsActionsWorking/DataRecord.xlsx
@@ -1253,7 +1253,7 @@
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>User_HCIKL</t>
+          <t>User_BN6RM</t>
         </is>
       </c>
     </row>
